--- a/Doc/1.SA/調査/パススルークエリの利用TBL.xlsx
+++ b/Doc/1.SA/調査/パススルークエリの利用TBL.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaimuVB\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1259,5 +1254,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>